--- a/src/main/java/com/testdata/TestData2.xlsx
+++ b/src/main/java/com/testdata/TestData2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="9">
   <si>
     <t>caller</t>
   </si>
@@ -91,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="539">
+  <cellXfs count="557">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -99,6 +99,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -932,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JQ2"/>
+  <dimension ref="A1:JZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1810,6 +1828,33 @@
       <c r="JQ1" t="s" s="537">
         <v>6</v>
       </c>
+      <c r="JR1" t="s" s="539">
+        <v>6</v>
+      </c>
+      <c r="JS1" t="s" s="541">
+        <v>6</v>
+      </c>
+      <c r="JT1" t="s" s="543">
+        <v>6</v>
+      </c>
+      <c r="JU1" t="s" s="545">
+        <v>6</v>
+      </c>
+      <c r="JV1" t="s" s="547">
+        <v>6</v>
+      </c>
+      <c r="JW1" t="s" s="549">
+        <v>6</v>
+      </c>
+      <c r="JX1" t="s" s="551">
+        <v>6</v>
+      </c>
+      <c r="JY1" t="s" s="553">
+        <v>6</v>
+      </c>
+      <c r="JZ1" t="s" s="555">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1950,7 +1995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JX2"/>
+  <dimension ref="A1:KG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -2192,7 +2237,16 @@
     <col min="281" max="281" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
     <col min="282" max="282" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
     <col min="283" max="283" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
-    <col min="284" max="284" width="6.59375" customWidth="true" bestFit="true"/>
+    <col min="284" max="284" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
+    <col min="285" max="285" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
+    <col min="286" max="286" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
+    <col min="287" max="287" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
+    <col min="288" max="288" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
+    <col min="289" max="289" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
+    <col min="290" max="290" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
+    <col min="291" max="291" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
+    <col min="292" max="292" bestFit="true" customWidth="true" width="6.59375" collapsed="true"/>
+    <col min="293" max="293" width="6.59375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -3026,6 +3080,33 @@
       <c r="JX1" t="s" s="538">
         <v>8</v>
       </c>
+      <c r="JY1" t="s" s="540">
+        <v>8</v>
+      </c>
+      <c r="JZ1" t="s" s="542">
+        <v>8</v>
+      </c>
+      <c r="KA1" t="s" s="544">
+        <v>8</v>
+      </c>
+      <c r="KB1" t="s" s="546">
+        <v>8</v>
+      </c>
+      <c r="KC1" t="s" s="548">
+        <v>8</v>
+      </c>
+      <c r="KD1" t="s" s="550">
+        <v>8</v>
+      </c>
+      <c r="KE1" t="s" s="552">
+        <v>8</v>
+      </c>
+      <c r="KF1" t="s" s="554">
+        <v>8</v>
+      </c>
+      <c r="KG1" t="s" s="556">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3740,6 +3821,33 @@
         <v>7</v>
       </c>
       <c r="JX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/java/com/testdata/TestData2.xlsx
+++ b/src/main/java/com/testdata/TestData2.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IncidentData" sheetId="1" r:id="rId1"/>
     <sheet name="ResolveNotes" sheetId="2" r:id="rId2"/>
-    <sheet name="dataclose" sheetId="5" r:id="rId3"/>
-    <sheet name="datahold" sheetId="3" r:id="rId4"/>
-    <sheet name="datacancel" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M25"/>
+  <oleSize ref="A1:G18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="13">
   <si>
     <t>caller</t>
   </si>
@@ -48,9 +45,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>waiting for brief Discription</t>
-  </si>
-  <si>
     <t>Additiondiscr</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
   </si>
   <si>
     <t>issue closed by caller itself</t>
-  </si>
-  <si>
-    <t>issue resolved</t>
   </si>
   <si>
     <t>Data is not Confirmed By Caller</t>
@@ -71,19 +62,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -118,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="656">
+  <cellXfs count="1302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -700,7 +685,653 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1079,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LW2"/>
+  <dimension ref="A1:YH2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -1103,9 +1734,10 @@
     <col min="269" max="269" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
     <col min="271" max="271" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
     <col min="273" max="273" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="637" max="637" bestFit="true" customWidth="true" width="6.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:536" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2000,119 +2632,1088 @@
       <c r="KL1" s="579" t="s">
         <v>6</v>
       </c>
-      <c r="KM1" s="582" t="s">
-        <v>6</v>
-      </c>
-      <c r="KN1" s="584" t="s">
-        <v>6</v>
-      </c>
-      <c r="KO1" s="586" t="s">
-        <v>6</v>
-      </c>
-      <c r="KP1" s="588" t="s">
-        <v>6</v>
-      </c>
-      <c r="KQ1" s="590" t="s">
-        <v>6</v>
-      </c>
-      <c r="KR1" s="592" t="s">
-        <v>6</v>
-      </c>
-      <c r="KS1" s="594" t="s">
-        <v>6</v>
-      </c>
-      <c r="KT1" s="596" t="s">
-        <v>6</v>
-      </c>
-      <c r="KU1" s="598" t="s">
-        <v>6</v>
-      </c>
-      <c r="KV1" s="600" t="s">
-        <v>6</v>
-      </c>
-      <c r="KW1" s="602" t="s">
-        <v>6</v>
-      </c>
-      <c r="KX1" s="604" t="s">
-        <v>6</v>
-      </c>
-      <c r="KY1" s="606" t="s">
-        <v>6</v>
-      </c>
-      <c r="KZ1" s="608" t="s">
-        <v>6</v>
-      </c>
-      <c r="LA1" s="610" t="s">
-        <v>6</v>
-      </c>
-      <c r="LB1" s="612" t="s">
-        <v>6</v>
-      </c>
-      <c r="LC1" s="614" t="s">
-        <v>6</v>
-      </c>
-      <c r="LD1" s="616" t="s">
-        <v>6</v>
-      </c>
-      <c r="LE1" s="618" t="s">
-        <v>6</v>
-      </c>
-      <c r="LF1" s="620" t="s">
-        <v>6</v>
-      </c>
-      <c r="LG1" s="622" t="s">
-        <v>6</v>
-      </c>
-      <c r="LH1" s="624" t="s">
-        <v>6</v>
-      </c>
-      <c r="LI1" s="626" t="s">
-        <v>6</v>
-      </c>
-      <c r="LJ1" t="s" s="628">
-        <v>6</v>
-      </c>
-      <c r="LK1" t="s" s="630">
-        <v>6</v>
-      </c>
-      <c r="LL1" t="s" s="632">
-        <v>6</v>
-      </c>
-      <c r="LM1" t="s" s="634">
-        <v>6</v>
-      </c>
-      <c r="LN1" t="s" s="636">
-        <v>6</v>
-      </c>
-      <c r="LO1" t="s" s="638">
-        <v>6</v>
-      </c>
-      <c r="LP1" t="s" s="640">
-        <v>6</v>
-      </c>
-      <c r="LQ1" t="s" s="642">
-        <v>6</v>
-      </c>
-      <c r="LR1" t="s" s="644">
-        <v>6</v>
-      </c>
-      <c r="LS1" t="s" s="646">
-        <v>6</v>
-      </c>
-      <c r="LT1" t="s" s="648">
-        <v>6</v>
-      </c>
-      <c r="LU1" t="s" s="650">
-        <v>6</v>
-      </c>
-      <c r="LV1" t="s" s="652">
-        <v>6</v>
-      </c>
-      <c r="LW1" t="s" s="654">
+      <c r="KM1" s="581" t="s">
+        <v>6</v>
+      </c>
+      <c r="KN1" s="583" t="s">
+        <v>6</v>
+      </c>
+      <c r="KO1" s="585" t="s">
+        <v>6</v>
+      </c>
+      <c r="KP1" s="587" t="s">
+        <v>6</v>
+      </c>
+      <c r="KQ1" s="589" t="s">
+        <v>6</v>
+      </c>
+      <c r="KR1" s="591" t="s">
+        <v>6</v>
+      </c>
+      <c r="KS1" s="593" t="s">
+        <v>6</v>
+      </c>
+      <c r="KT1" s="595" t="s">
+        <v>6</v>
+      </c>
+      <c r="KU1" s="597" t="s">
+        <v>6</v>
+      </c>
+      <c r="KV1" s="599" t="s">
+        <v>6</v>
+      </c>
+      <c r="KW1" s="601" t="s">
+        <v>6</v>
+      </c>
+      <c r="KX1" s="603" t="s">
+        <v>6</v>
+      </c>
+      <c r="KY1" s="605" t="s">
+        <v>6</v>
+      </c>
+      <c r="KZ1" s="607" t="s">
+        <v>6</v>
+      </c>
+      <c r="LA1" s="609" t="s">
+        <v>6</v>
+      </c>
+      <c r="LB1" s="611" t="s">
+        <v>6</v>
+      </c>
+      <c r="LC1" s="613" t="s">
+        <v>6</v>
+      </c>
+      <c r="LD1" s="615" t="s">
+        <v>6</v>
+      </c>
+      <c r="LE1" s="617" t="s">
+        <v>6</v>
+      </c>
+      <c r="LF1" s="619" t="s">
+        <v>6</v>
+      </c>
+      <c r="LG1" s="621" t="s">
+        <v>6</v>
+      </c>
+      <c r="LH1" s="623" t="s">
+        <v>6</v>
+      </c>
+      <c r="LI1" s="625" t="s">
+        <v>6</v>
+      </c>
+      <c r="LJ1" s="627" t="s">
+        <v>6</v>
+      </c>
+      <c r="LK1" s="629" t="s">
+        <v>6</v>
+      </c>
+      <c r="LL1" s="631" t="s">
+        <v>6</v>
+      </c>
+      <c r="LM1" s="633" t="s">
+        <v>6</v>
+      </c>
+      <c r="LN1" s="635" t="s">
+        <v>6</v>
+      </c>
+      <c r="LO1" s="637" t="s">
+        <v>6</v>
+      </c>
+      <c r="LP1" s="639" t="s">
+        <v>6</v>
+      </c>
+      <c r="LQ1" s="641" t="s">
+        <v>6</v>
+      </c>
+      <c r="LR1" s="643" t="s">
+        <v>6</v>
+      </c>
+      <c r="LS1" s="645" t="s">
+        <v>6</v>
+      </c>
+      <c r="LT1" s="647" t="s">
+        <v>6</v>
+      </c>
+      <c r="LU1" s="649" t="s">
+        <v>6</v>
+      </c>
+      <c r="LV1" s="651" t="s">
+        <v>6</v>
+      </c>
+      <c r="LW1" s="653" t="s">
+        <v>6</v>
+      </c>
+      <c r="LX1" s="655" t="s">
+        <v>6</v>
+      </c>
+      <c r="LY1" s="657" t="s">
+        <v>6</v>
+      </c>
+      <c r="LZ1" s="659" t="s">
+        <v>6</v>
+      </c>
+      <c r="MA1" s="661" t="s">
+        <v>6</v>
+      </c>
+      <c r="MB1" s="663" t="s">
+        <v>6</v>
+      </c>
+      <c r="MC1" s="665" t="s">
+        <v>6</v>
+      </c>
+      <c r="MD1" s="667" t="s">
+        <v>6</v>
+      </c>
+      <c r="ME1" s="669" t="s">
+        <v>6</v>
+      </c>
+      <c r="MF1" s="671" t="s">
+        <v>6</v>
+      </c>
+      <c r="MG1" s="673" t="s">
+        <v>6</v>
+      </c>
+      <c r="MH1" s="675" t="s">
+        <v>6</v>
+      </c>
+      <c r="MI1" s="677" t="s">
+        <v>6</v>
+      </c>
+      <c r="MJ1" s="679" t="s">
+        <v>6</v>
+      </c>
+      <c r="MK1" s="681" t="s">
+        <v>6</v>
+      </c>
+      <c r="ML1" s="683" t="s">
+        <v>6</v>
+      </c>
+      <c r="MM1" s="685" t="s">
+        <v>6</v>
+      </c>
+      <c r="MN1" s="688" t="s">
+        <v>6</v>
+      </c>
+      <c r="MO1" s="690" t="s">
+        <v>6</v>
+      </c>
+      <c r="MP1" s="692" t="s">
+        <v>6</v>
+      </c>
+      <c r="MQ1" s="694" t="s">
+        <v>6</v>
+      </c>
+      <c r="MR1" s="696" t="s">
+        <v>6</v>
+      </c>
+      <c r="MS1" s="698" t="s">
+        <v>6</v>
+      </c>
+      <c r="MT1" s="700" t="s">
+        <v>6</v>
+      </c>
+      <c r="MU1" s="702" t="s">
+        <v>6</v>
+      </c>
+      <c r="MV1" s="704" t="s">
+        <v>6</v>
+      </c>
+      <c r="MW1" s="706" t="s">
+        <v>6</v>
+      </c>
+      <c r="MX1" s="708" t="s">
+        <v>6</v>
+      </c>
+      <c r="MY1" s="710" t="s">
+        <v>6</v>
+      </c>
+      <c r="MZ1" s="712" t="s">
+        <v>6</v>
+      </c>
+      <c r="NA1" s="714" t="s">
+        <v>6</v>
+      </c>
+      <c r="NB1" s="716" t="s">
+        <v>6</v>
+      </c>
+      <c r="NC1" s="718" t="s">
+        <v>6</v>
+      </c>
+      <c r="ND1" s="720" t="s">
+        <v>6</v>
+      </c>
+      <c r="NE1" s="722" t="s">
+        <v>6</v>
+      </c>
+      <c r="NF1" s="724" t="s">
+        <v>6</v>
+      </c>
+      <c r="NG1" s="726" t="s">
+        <v>6</v>
+      </c>
+      <c r="NH1" s="728" t="s">
+        <v>6</v>
+      </c>
+      <c r="NI1" s="730" t="s">
+        <v>6</v>
+      </c>
+      <c r="NJ1" s="732" t="s">
+        <v>6</v>
+      </c>
+      <c r="NK1" s="734" t="s">
+        <v>6</v>
+      </c>
+      <c r="NL1" s="736" t="s">
+        <v>6</v>
+      </c>
+      <c r="NM1" s="738" t="s">
+        <v>6</v>
+      </c>
+      <c r="NN1" s="740" t="s">
+        <v>6</v>
+      </c>
+      <c r="NO1" s="742" t="s">
+        <v>6</v>
+      </c>
+      <c r="NP1" s="744" t="s">
+        <v>6</v>
+      </c>
+      <c r="NQ1" s="746" t="s">
+        <v>6</v>
+      </c>
+      <c r="NR1" s="748" t="s">
+        <v>6</v>
+      </c>
+      <c r="NS1" s="750" t="s">
+        <v>6</v>
+      </c>
+      <c r="NT1" s="752" t="s">
+        <v>6</v>
+      </c>
+      <c r="NU1" s="754" t="s">
+        <v>6</v>
+      </c>
+      <c r="NV1" s="756" t="s">
+        <v>6</v>
+      </c>
+      <c r="NW1" s="758" t="s">
+        <v>6</v>
+      </c>
+      <c r="NX1" s="760" t="s">
+        <v>6</v>
+      </c>
+      <c r="NY1" s="762" t="s">
+        <v>6</v>
+      </c>
+      <c r="NZ1" s="764" t="s">
+        <v>6</v>
+      </c>
+      <c r="OA1" s="766" t="s">
+        <v>6</v>
+      </c>
+      <c r="OB1" s="768" t="s">
+        <v>6</v>
+      </c>
+      <c r="OC1" s="770" t="s">
+        <v>6</v>
+      </c>
+      <c r="OD1" s="772" t="s">
+        <v>6</v>
+      </c>
+      <c r="OE1" s="774" t="s">
+        <v>6</v>
+      </c>
+      <c r="OF1" s="776" t="s">
+        <v>6</v>
+      </c>
+      <c r="OG1" s="778" t="s">
+        <v>6</v>
+      </c>
+      <c r="OH1" s="780" t="s">
+        <v>6</v>
+      </c>
+      <c r="OI1" s="782" t="s">
+        <v>6</v>
+      </c>
+      <c r="OJ1" s="784" t="s">
+        <v>6</v>
+      </c>
+      <c r="OK1" s="786" t="s">
+        <v>6</v>
+      </c>
+      <c r="OL1" s="788" t="s">
+        <v>6</v>
+      </c>
+      <c r="OM1" s="790" t="s">
+        <v>6</v>
+      </c>
+      <c r="ON1" s="792" t="s">
+        <v>6</v>
+      </c>
+      <c r="OO1" s="794" t="s">
+        <v>6</v>
+      </c>
+      <c r="OP1" s="796" t="s">
+        <v>6</v>
+      </c>
+      <c r="OQ1" s="798" t="s">
+        <v>6</v>
+      </c>
+      <c r="OR1" s="800" t="s">
+        <v>6</v>
+      </c>
+      <c r="OS1" s="802" t="s">
+        <v>6</v>
+      </c>
+      <c r="OT1" s="804" t="s">
+        <v>6</v>
+      </c>
+      <c r="OU1" s="806" t="s">
+        <v>6</v>
+      </c>
+      <c r="OV1" s="808" t="s">
+        <v>6</v>
+      </c>
+      <c r="OW1" s="810" t="s">
+        <v>6</v>
+      </c>
+      <c r="OX1" s="812" t="s">
+        <v>6</v>
+      </c>
+      <c r="OY1" s="814" t="s">
+        <v>6</v>
+      </c>
+      <c r="OZ1" s="816" t="s">
+        <v>6</v>
+      </c>
+      <c r="PA1" s="818" t="s">
+        <v>6</v>
+      </c>
+      <c r="PB1" s="820" t="s">
+        <v>6</v>
+      </c>
+      <c r="PC1" s="822" t="s">
+        <v>6</v>
+      </c>
+      <c r="PD1" s="824" t="s">
+        <v>6</v>
+      </c>
+      <c r="PE1" s="826" t="s">
+        <v>6</v>
+      </c>
+      <c r="PF1" s="828" t="s">
+        <v>6</v>
+      </c>
+      <c r="PG1" s="830" t="s">
+        <v>6</v>
+      </c>
+      <c r="PH1" s="832" t="s">
+        <v>6</v>
+      </c>
+      <c r="PI1" s="834" t="s">
+        <v>6</v>
+      </c>
+      <c r="PJ1" s="836" t="s">
+        <v>6</v>
+      </c>
+      <c r="PK1" s="838" t="s">
+        <v>6</v>
+      </c>
+      <c r="PL1" s="840" t="s">
+        <v>6</v>
+      </c>
+      <c r="PM1" s="842" t="s">
+        <v>6</v>
+      </c>
+      <c r="PN1" s="844" t="s">
+        <v>6</v>
+      </c>
+      <c r="PO1" s="846" t="s">
+        <v>6</v>
+      </c>
+      <c r="PP1" s="848" t="s">
+        <v>6</v>
+      </c>
+      <c r="PQ1" s="850" t="s">
+        <v>6</v>
+      </c>
+      <c r="PR1" s="852" t="s">
+        <v>6</v>
+      </c>
+      <c r="PS1" s="854" t="s">
+        <v>6</v>
+      </c>
+      <c r="PT1" s="856" t="s">
+        <v>6</v>
+      </c>
+      <c r="PU1" s="858" t="s">
+        <v>6</v>
+      </c>
+      <c r="PV1" s="860" t="s">
+        <v>6</v>
+      </c>
+      <c r="PW1" s="862" t="s">
+        <v>6</v>
+      </c>
+      <c r="PX1" s="864" t="s">
+        <v>6</v>
+      </c>
+      <c r="PY1" s="866" t="s">
+        <v>6</v>
+      </c>
+      <c r="PZ1" s="868" t="s">
+        <v>6</v>
+      </c>
+      <c r="QA1" s="870" t="s">
+        <v>6</v>
+      </c>
+      <c r="QB1" s="872" t="s">
+        <v>6</v>
+      </c>
+      <c r="QC1" s="874" t="s">
+        <v>6</v>
+      </c>
+      <c r="QD1" s="876" t="s">
+        <v>6</v>
+      </c>
+      <c r="QE1" s="878" t="s">
+        <v>6</v>
+      </c>
+      <c r="QF1" s="880" t="s">
+        <v>6</v>
+      </c>
+      <c r="QG1" s="882" t="s">
+        <v>6</v>
+      </c>
+      <c r="QH1" s="884" t="s">
+        <v>6</v>
+      </c>
+      <c r="QI1" s="886" t="s">
+        <v>6</v>
+      </c>
+      <c r="QJ1" s="888" t="s">
+        <v>6</v>
+      </c>
+      <c r="QK1" s="890" t="s">
+        <v>6</v>
+      </c>
+      <c r="QL1" s="892" t="s">
+        <v>6</v>
+      </c>
+      <c r="QM1" s="894" t="s">
+        <v>6</v>
+      </c>
+      <c r="QN1" s="896" t="s">
+        <v>6</v>
+      </c>
+      <c r="QO1" s="898" t="s">
+        <v>6</v>
+      </c>
+      <c r="QP1" s="900" t="s">
+        <v>6</v>
+      </c>
+      <c r="QQ1" s="902" t="s">
+        <v>6</v>
+      </c>
+      <c r="QR1" s="904" t="s">
+        <v>6</v>
+      </c>
+      <c r="QS1" s="906" t="s">
+        <v>6</v>
+      </c>
+      <c r="QT1" s="908" t="s">
+        <v>6</v>
+      </c>
+      <c r="QU1" s="910" t="s">
+        <v>6</v>
+      </c>
+      <c r="QV1" s="912" t="s">
+        <v>6</v>
+      </c>
+      <c r="QW1" s="914" t="s">
+        <v>6</v>
+      </c>
+      <c r="QX1" s="916" t="s">
+        <v>6</v>
+      </c>
+      <c r="QY1" s="918" t="s">
+        <v>6</v>
+      </c>
+      <c r="QZ1" s="920" t="s">
+        <v>6</v>
+      </c>
+      <c r="RA1" s="922" t="s">
+        <v>6</v>
+      </c>
+      <c r="RB1" s="924" t="s">
+        <v>6</v>
+      </c>
+      <c r="RC1" s="926" t="s">
+        <v>6</v>
+      </c>
+      <c r="RD1" s="928" t="s">
+        <v>6</v>
+      </c>
+      <c r="RE1" s="930" t="s">
+        <v>6</v>
+      </c>
+      <c r="RF1" s="932" t="s">
+        <v>6</v>
+      </c>
+      <c r="RG1" s="934" t="s">
+        <v>6</v>
+      </c>
+      <c r="RH1" s="936" t="s">
+        <v>6</v>
+      </c>
+      <c r="RI1" s="938" t="s">
+        <v>6</v>
+      </c>
+      <c r="RJ1" s="940" t="s">
+        <v>6</v>
+      </c>
+      <c r="RK1" s="942" t="s">
+        <v>6</v>
+      </c>
+      <c r="RL1" s="944" t="s">
+        <v>6</v>
+      </c>
+      <c r="RM1" s="946" t="s">
+        <v>6</v>
+      </c>
+      <c r="RN1" s="948" t="s">
+        <v>6</v>
+      </c>
+      <c r="RO1" s="950" t="s">
+        <v>6</v>
+      </c>
+      <c r="RP1" s="952" t="s">
+        <v>6</v>
+      </c>
+      <c r="RQ1" s="954" t="s">
+        <v>6</v>
+      </c>
+      <c r="RR1" s="956" t="s">
+        <v>6</v>
+      </c>
+      <c r="RS1" s="958" t="s">
+        <v>6</v>
+      </c>
+      <c r="RT1" s="960" t="s">
+        <v>6</v>
+      </c>
+      <c r="RU1" s="962" t="s">
+        <v>6</v>
+      </c>
+      <c r="RV1" s="964" t="s">
+        <v>6</v>
+      </c>
+      <c r="RW1" s="966" t="s">
+        <v>6</v>
+      </c>
+      <c r="RX1" s="968" t="s">
+        <v>6</v>
+      </c>
+      <c r="RY1" s="970" t="s">
+        <v>6</v>
+      </c>
+      <c r="RZ1" s="972" t="s">
+        <v>6</v>
+      </c>
+      <c r="SA1" s="974" t="s">
+        <v>6</v>
+      </c>
+      <c r="SB1" s="976" t="s">
+        <v>6</v>
+      </c>
+      <c r="SC1" s="978" t="s">
+        <v>6</v>
+      </c>
+      <c r="SD1" s="980" t="s">
+        <v>6</v>
+      </c>
+      <c r="SE1" s="982" t="s">
+        <v>6</v>
+      </c>
+      <c r="SF1" s="984" t="s">
+        <v>6</v>
+      </c>
+      <c r="SG1" s="986" t="s">
+        <v>6</v>
+      </c>
+      <c r="SH1" s="988" t="s">
+        <v>6</v>
+      </c>
+      <c r="SI1" s="990" t="s">
+        <v>6</v>
+      </c>
+      <c r="SJ1" s="992" t="s">
+        <v>6</v>
+      </c>
+      <c r="SK1" s="994" t="s">
+        <v>6</v>
+      </c>
+      <c r="SL1" s="996" t="s">
+        <v>6</v>
+      </c>
+      <c r="SM1" s="998" t="s">
+        <v>6</v>
+      </c>
+      <c r="SN1" s="1000" t="s">
+        <v>6</v>
+      </c>
+      <c r="SO1" s="1002" t="s">
+        <v>6</v>
+      </c>
+      <c r="SP1" s="1004" t="s">
+        <v>6</v>
+      </c>
+      <c r="SQ1" s="1006" t="s">
+        <v>6</v>
+      </c>
+      <c r="SR1" s="1008" t="s">
+        <v>6</v>
+      </c>
+      <c r="SS1" s="1010" t="s">
+        <v>6</v>
+      </c>
+      <c r="ST1" s="1012" t="s">
+        <v>6</v>
+      </c>
+      <c r="SU1" s="1014" t="s">
+        <v>6</v>
+      </c>
+      <c r="SV1" s="1016" t="s">
+        <v>6</v>
+      </c>
+      <c r="SW1" s="1018" t="s">
+        <v>6</v>
+      </c>
+      <c r="SX1" s="1020" t="s">
+        <v>6</v>
+      </c>
+      <c r="SY1" s="1022" t="s">
+        <v>6</v>
+      </c>
+      <c r="SZ1" s="1024" t="s">
+        <v>6</v>
+      </c>
+      <c r="TA1" s="1026" t="s">
+        <v>6</v>
+      </c>
+      <c r="TB1" s="1028" t="s">
+        <v>6</v>
+      </c>
+      <c r="TC1" s="1030" t="s">
+        <v>6</v>
+      </c>
+      <c r="TD1" s="1032" t="s">
+        <v>6</v>
+      </c>
+      <c r="TE1" s="1034" t="s">
+        <v>6</v>
+      </c>
+      <c r="TF1" s="1036" t="s">
+        <v>6</v>
+      </c>
+      <c r="TG1" s="1038" t="s">
+        <v>6</v>
+      </c>
+      <c r="TH1" s="1040" t="s">
+        <v>6</v>
+      </c>
+      <c r="TI1" s="1042" t="s">
+        <v>6</v>
+      </c>
+      <c r="TJ1" s="1044" t="s">
+        <v>6</v>
+      </c>
+      <c r="TK1" s="1046" t="s">
+        <v>6</v>
+      </c>
+      <c r="TL1" s="1048" t="s">
+        <v>6</v>
+      </c>
+      <c r="TM1" s="1050" t="s">
+        <v>6</v>
+      </c>
+      <c r="TN1" s="1052" t="s">
+        <v>6</v>
+      </c>
+      <c r="TO1" s="1054" t="s">
+        <v>6</v>
+      </c>
+      <c r="TP1" s="1056" t="s">
+        <v>6</v>
+      </c>
+      <c r="TQ1" t="s" s="1058">
+        <v>6</v>
+      </c>
+      <c r="TR1" t="s" s="1060">
+        <v>6</v>
+      </c>
+      <c r="TS1" t="s" s="1062">
+        <v>6</v>
+      </c>
+      <c r="TT1" t="s" s="1064">
+        <v>6</v>
+      </c>
+      <c r="TU1" t="s" s="1066">
+        <v>6</v>
+      </c>
+      <c r="TV1" t="s" s="1068">
+        <v>6</v>
+      </c>
+      <c r="TW1" t="s" s="1070">
+        <v>6</v>
+      </c>
+      <c r="TX1" t="s" s="1072">
+        <v>6</v>
+      </c>
+      <c r="TY1" t="s" s="1074">
+        <v>6</v>
+      </c>
+      <c r="TZ1" t="s" s="1076">
+        <v>6</v>
+      </c>
+      <c r="UA1" t="s" s="1078">
+        <v>6</v>
+      </c>
+      <c r="UB1" t="s" s="1080">
+        <v>6</v>
+      </c>
+      <c r="UC1" t="s" s="1082">
+        <v>6</v>
+      </c>
+      <c r="UD1" t="s" s="1084">
+        <v>6</v>
+      </c>
+      <c r="UE1" t="s" s="1086">
+        <v>6</v>
+      </c>
+      <c r="UF1" t="s" s="1088">
+        <v>6</v>
+      </c>
+      <c r="UG1" t="s" s="1090">
+        <v>6</v>
+      </c>
+      <c r="UH1" t="s" s="1092">
+        <v>6</v>
+      </c>
+      <c r="UI1" t="s" s="1094">
+        <v>6</v>
+      </c>
+      <c r="UJ1" t="s" s="1096">
+        <v>6</v>
+      </c>
+      <c r="UK1" t="s" s="1098">
+        <v>6</v>
+      </c>
+      <c r="UL1" t="s" s="1100">
+        <v>6</v>
+      </c>
+      <c r="UM1" t="s" s="1102">
+        <v>6</v>
+      </c>
+      <c r="UN1" t="s" s="1104">
+        <v>6</v>
+      </c>
+      <c r="UO1" t="s" s="1106">
+        <v>6</v>
+      </c>
+      <c r="UP1" t="s" s="1108">
+        <v>6</v>
+      </c>
+      <c r="UQ1" t="s" s="1110">
+        <v>6</v>
+      </c>
+      <c r="UR1" t="s" s="1112">
+        <v>6</v>
+      </c>
+      <c r="US1" t="s" s="1114">
+        <v>6</v>
+      </c>
+      <c r="UT1" t="s" s="1116">
+        <v>6</v>
+      </c>
+      <c r="UU1" t="s" s="1118">
+        <v>6</v>
+      </c>
+      <c r="UV1" t="s" s="1120">
+        <v>6</v>
+      </c>
+      <c r="UW1" t="s" s="1122">
+        <v>6</v>
+      </c>
+      <c r="UX1" t="s" s="1124">
+        <v>6</v>
+      </c>
+      <c r="UY1" t="s" s="1126">
+        <v>6</v>
+      </c>
+      <c r="UZ1" t="s" s="1128">
+        <v>6</v>
+      </c>
+      <c r="VA1" t="s" s="1130">
+        <v>6</v>
+      </c>
+      <c r="VB1" t="s" s="1132">
+        <v>6</v>
+      </c>
+      <c r="VC1" t="s" s="1134">
+        <v>6</v>
+      </c>
+      <c r="VD1" t="s" s="1136">
+        <v>6</v>
+      </c>
+      <c r="VE1" t="s" s="1138">
+        <v>6</v>
+      </c>
+      <c r="VF1" t="s" s="1140">
+        <v>6</v>
+      </c>
+      <c r="VG1" t="s" s="1142">
+        <v>6</v>
+      </c>
+      <c r="VH1" t="s" s="1144">
+        <v>6</v>
+      </c>
+      <c r="VI1" t="s" s="1146">
+        <v>6</v>
+      </c>
+      <c r="VJ1" t="s" s="1148">
+        <v>6</v>
+      </c>
+      <c r="VK1" t="s" s="1150">
+        <v>6</v>
+      </c>
+      <c r="VL1" t="s" s="1152">
+        <v>6</v>
+      </c>
+      <c r="VM1" t="s" s="1154">
+        <v>6</v>
+      </c>
+      <c r="VN1" t="s" s="1156">
+        <v>6</v>
+      </c>
+      <c r="VO1" t="s" s="1158">
+        <v>6</v>
+      </c>
+      <c r="VP1" t="s" s="1160">
+        <v>6</v>
+      </c>
+      <c r="VQ1" t="s" s="1162">
+        <v>6</v>
+      </c>
+      <c r="VR1" t="s" s="1164">
+        <v>6</v>
+      </c>
+      <c r="VS1" t="s" s="1166">
+        <v>6</v>
+      </c>
+      <c r="VT1" t="s" s="1168">
+        <v>6</v>
+      </c>
+      <c r="VU1" t="s" s="1170">
+        <v>6</v>
+      </c>
+      <c r="VV1" t="s" s="1172">
+        <v>6</v>
+      </c>
+      <c r="VW1" t="s" s="1174">
+        <v>6</v>
+      </c>
+      <c r="VX1" t="s" s="1176">
+        <v>6</v>
+      </c>
+      <c r="VY1" t="s" s="1178">
+        <v>6</v>
+      </c>
+      <c r="VZ1" t="s" s="1180">
+        <v>6</v>
+      </c>
+      <c r="WA1" t="s" s="1182">
+        <v>6</v>
+      </c>
+      <c r="WB1" t="s" s="1184">
+        <v>6</v>
+      </c>
+      <c r="WC1" t="s" s="1186">
+        <v>6</v>
+      </c>
+      <c r="WD1" t="s" s="1188">
+        <v>6</v>
+      </c>
+      <c r="WE1" t="s" s="1190">
+        <v>6</v>
+      </c>
+      <c r="WF1" t="s" s="1192">
+        <v>6</v>
+      </c>
+      <c r="WG1" t="s" s="1194">
+        <v>6</v>
+      </c>
+      <c r="WH1" t="s" s="1196">
+        <v>6</v>
+      </c>
+      <c r="WI1" t="s" s="1198">
+        <v>6</v>
+      </c>
+      <c r="WJ1" t="s" s="1200">
+        <v>6</v>
+      </c>
+      <c r="WK1" t="s" s="1202">
+        <v>6</v>
+      </c>
+      <c r="WL1" t="s" s="1204">
+        <v>6</v>
+      </c>
+      <c r="WM1" t="s" s="1206">
+        <v>6</v>
+      </c>
+      <c r="WN1" t="s" s="1208">
+        <v>6</v>
+      </c>
+      <c r="WO1" t="s" s="1210">
+        <v>6</v>
+      </c>
+      <c r="WP1" t="s" s="1212">
+        <v>6</v>
+      </c>
+      <c r="WQ1" t="s" s="1214">
+        <v>6</v>
+      </c>
+      <c r="WR1" t="s" s="1216">
+        <v>6</v>
+      </c>
+      <c r="WS1" t="s" s="1218">
+        <v>6</v>
+      </c>
+      <c r="WT1" t="s" s="1220">
+        <v>6</v>
+      </c>
+      <c r="WU1" t="s" s="1222">
+        <v>6</v>
+      </c>
+      <c r="WV1" t="s" s="1224">
+        <v>6</v>
+      </c>
+      <c r="WW1" t="s" s="1226">
+        <v>6</v>
+      </c>
+      <c r="WX1" t="s" s="1228">
+        <v>6</v>
+      </c>
+      <c r="WY1" t="s" s="1230">
+        <v>6</v>
+      </c>
+      <c r="WZ1" t="s" s="1232">
+        <v>6</v>
+      </c>
+      <c r="XA1" t="s" s="1234">
+        <v>6</v>
+      </c>
+      <c r="XB1" t="s" s="1236">
+        <v>6</v>
+      </c>
+      <c r="XC1" t="s" s="1238">
+        <v>6</v>
+      </c>
+      <c r="XD1" t="s" s="1240">
+        <v>6</v>
+      </c>
+      <c r="XE1" t="s" s="1242">
+        <v>6</v>
+      </c>
+      <c r="XF1" t="s" s="1244">
+        <v>6</v>
+      </c>
+      <c r="XG1" t="s" s="1246">
+        <v>6</v>
+      </c>
+      <c r="XH1" t="s" s="1248">
+        <v>6</v>
+      </c>
+      <c r="XI1" t="s" s="1250">
+        <v>6</v>
+      </c>
+      <c r="XJ1" t="s" s="1252">
+        <v>6</v>
+      </c>
+      <c r="XK1" t="s" s="1254">
+        <v>6</v>
+      </c>
+      <c r="XL1" t="s" s="1256">
+        <v>6</v>
+      </c>
+      <c r="XM1" t="s" s="1258">
+        <v>6</v>
+      </c>
+      <c r="XN1" t="s" s="1260">
+        <v>6</v>
+      </c>
+      <c r="XO1" t="s" s="1262">
+        <v>6</v>
+      </c>
+      <c r="XP1" t="s" s="1264">
+        <v>6</v>
+      </c>
+      <c r="XQ1" t="s" s="1266">
+        <v>6</v>
+      </c>
+      <c r="XR1" t="s" s="1268">
+        <v>6</v>
+      </c>
+      <c r="XS1" t="s" s="1270">
+        <v>6</v>
+      </c>
+      <c r="XT1" t="s" s="1272">
+        <v>6</v>
+      </c>
+      <c r="XU1" t="s" s="1274">
+        <v>6</v>
+      </c>
+      <c r="XV1" t="s" s="1276">
+        <v>6</v>
+      </c>
+      <c r="XW1" t="s" s="1278">
+        <v>6</v>
+      </c>
+      <c r="XX1" t="s" s="1280">
+        <v>6</v>
+      </c>
+      <c r="XY1" t="s" s="1282">
+        <v>6</v>
+      </c>
+      <c r="XZ1" t="s" s="1284">
+        <v>6</v>
+      </c>
+      <c r="YA1" t="s" s="1286">
+        <v>6</v>
+      </c>
+      <c r="YB1" t="s" s="1288">
+        <v>6</v>
+      </c>
+      <c r="YC1" t="s" s="1290">
+        <v>6</v>
+      </c>
+      <c r="YD1" t="s" s="1292">
+        <v>6</v>
+      </c>
+      <c r="YE1" t="s" s="1294">
+        <v>6</v>
+      </c>
+      <c r="YF1" t="s" s="1296">
+        <v>6</v>
+      </c>
+      <c r="YG1" t="s" s="1298">
+        <v>6</v>
+      </c>
+      <c r="YH1" t="s" s="1300">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:536" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2240,6 +3841,9 @@
         <v>7</v>
       </c>
       <c r="JM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XM2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2251,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MD2"/>
+  <dimension ref="A1:YP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,7 +3867,7 @@
     <col min="2" max="2" customWidth="true" width="42.85546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="580" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="580" width="25.42578125" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
     <col min="19" max="21" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
     <col min="23" max="30" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
@@ -2279,24 +3883,132 @@
     <col min="277" max="277" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
     <col min="279" max="279" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
     <col min="281" max="292" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="293" max="328" bestFit="true" customWidth="true" width="6.5703125"/>
-    <col min="329" max="329" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="330" max="330" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="331" max="331" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="332" max="332" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="333" max="333" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="334" max="334" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="335" max="335" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="336" max="336" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="337" max="337" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="338" max="338" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="339" max="339" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="340" max="340" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="341" max="341" bestFit="true" customWidth="true" width="6.59375"/>
-    <col min="342" max="342" width="6.59375" customWidth="true" bestFit="true"/>
+    <col min="293" max="357" bestFit="true" customWidth="true" width="6.5703125"/>
+    <col min="359" max="544" bestFit="true" customWidth="true" width="6.5703125"/>
+    <col min="545" max="545" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="546" max="546" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="547" max="547" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="548" max="548" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="549" max="549" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="550" max="550" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="551" max="551" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="552" max="552" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="553" max="553" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="554" max="554" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="555" max="555" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="556" max="556" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="557" max="557" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="558" max="558" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="559" max="559" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="560" max="560" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="561" max="561" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="562" max="562" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="563" max="563" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="564" max="564" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="565" max="565" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="566" max="566" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="567" max="567" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="568" max="568" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="569" max="569" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="570" max="570" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="571" max="571" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="572" max="572" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="573" max="573" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="574" max="574" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="575" max="575" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="576" max="576" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="577" max="577" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="578" max="578" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="579" max="579" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="580" max="580" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="581" max="581" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="582" max="582" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="583" max="583" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="584" max="584" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="585" max="585" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="586" max="586" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="587" max="587" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="588" max="588" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="589" max="589" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="590" max="590" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="591" max="591" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="592" max="592" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="593" max="593" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="594" max="594" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="595" max="595" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="596" max="596" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="597" max="597" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="598" max="598" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="599" max="599" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="600" max="600" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="601" max="601" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="602" max="602" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="603" max="603" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="604" max="604" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="605" max="605" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="606" max="606" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="607" max="607" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="608" max="608" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="609" max="609" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="610" max="610" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="611" max="611" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="612" max="612" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="613" max="613" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="614" max="614" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="615" max="615" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="616" max="616" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="617" max="617" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="618" max="618" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="619" max="619" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="620" max="620" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="621" max="621" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="622" max="622" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="623" max="623" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="624" max="624" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="625" max="625" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="626" max="626" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="627" max="627" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="628" max="628" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="629" max="629" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="630" max="630" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="631" max="631" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="632" max="632" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="633" max="633" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="634" max="634" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="635" max="635" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="636" max="636" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="637" max="637" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="638" max="638" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="639" max="639" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="640" max="640" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="641" max="641" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="642" max="642" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="643" max="643" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="644" max="644" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="646" max="646" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="647" max="647" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="648" max="648" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="649" max="649" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="650" max="650" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="651" max="651" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="652" max="652" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="653" max="653" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="654" max="654" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="655" max="655" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="656" max="656" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="657" max="657" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="658" max="658" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="659" max="659" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="660" max="660" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="661" max="661" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="662" max="662" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="663" max="663" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="664" max="664" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="665" max="665" bestFit="true" customWidth="true" width="6.59375"/>
+    <col min="666" max="666" width="6.59375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:328" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:544" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,9 +4019,11 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3190,119 +4904,1091 @@
       <c r="KS1" s="580" t="s">
         <v>8</v>
       </c>
-      <c r="KT1" s="583" t="s">
-        <v>8</v>
-      </c>
-      <c r="KU1" s="585" t="s">
-        <v>8</v>
-      </c>
-      <c r="KV1" s="587" t="s">
-        <v>8</v>
-      </c>
-      <c r="KW1" s="589" t="s">
-        <v>8</v>
-      </c>
-      <c r="KX1" s="591" t="s">
-        <v>8</v>
-      </c>
-      <c r="KY1" s="593" t="s">
-        <v>8</v>
-      </c>
-      <c r="KZ1" s="595" t="s">
-        <v>8</v>
-      </c>
-      <c r="LA1" s="597" t="s">
-        <v>8</v>
-      </c>
-      <c r="LB1" s="599" t="s">
-        <v>8</v>
-      </c>
-      <c r="LC1" s="601" t="s">
-        <v>8</v>
-      </c>
-      <c r="LD1" s="603" t="s">
-        <v>8</v>
-      </c>
-      <c r="LE1" s="605" t="s">
-        <v>8</v>
-      </c>
-      <c r="LF1" s="607" t="s">
-        <v>8</v>
-      </c>
-      <c r="LG1" s="609" t="s">
-        <v>8</v>
-      </c>
-      <c r="LH1" s="611" t="s">
-        <v>8</v>
-      </c>
-      <c r="LI1" s="613" t="s">
-        <v>8</v>
-      </c>
-      <c r="LJ1" s="615" t="s">
-        <v>8</v>
-      </c>
-      <c r="LK1" s="617" t="s">
-        <v>8</v>
-      </c>
-      <c r="LL1" s="619" t="s">
-        <v>8</v>
-      </c>
-      <c r="LM1" s="621" t="s">
-        <v>8</v>
-      </c>
-      <c r="LN1" s="623" t="s">
-        <v>8</v>
-      </c>
-      <c r="LO1" s="625" t="s">
-        <v>8</v>
-      </c>
-      <c r="LP1" s="627" t="s">
-        <v>8</v>
-      </c>
-      <c r="LQ1" t="s" s="629">
-        <v>8</v>
-      </c>
-      <c r="LR1" t="s" s="631">
-        <v>8</v>
-      </c>
-      <c r="LS1" t="s" s="633">
-        <v>8</v>
-      </c>
-      <c r="LT1" t="s" s="635">
-        <v>8</v>
-      </c>
-      <c r="LU1" t="s" s="637">
-        <v>8</v>
-      </c>
-      <c r="LV1" t="s" s="639">
-        <v>8</v>
-      </c>
-      <c r="LW1" t="s" s="641">
-        <v>8</v>
-      </c>
-      <c r="LX1" t="s" s="643">
-        <v>8</v>
-      </c>
-      <c r="LY1" t="s" s="645">
-        <v>8</v>
-      </c>
-      <c r="LZ1" t="s" s="647">
-        <v>8</v>
-      </c>
-      <c r="MA1" t="s" s="649">
-        <v>8</v>
-      </c>
-      <c r="MB1" t="s" s="651">
-        <v>8</v>
-      </c>
-      <c r="MC1" t="s" s="653">
-        <v>8</v>
-      </c>
-      <c r="MD1" t="s" s="655">
+      <c r="KT1" s="582" t="s">
+        <v>8</v>
+      </c>
+      <c r="KU1" s="584" t="s">
+        <v>8</v>
+      </c>
+      <c r="KV1" s="586" t="s">
+        <v>8</v>
+      </c>
+      <c r="KW1" s="588" t="s">
+        <v>8</v>
+      </c>
+      <c r="KX1" s="590" t="s">
+        <v>8</v>
+      </c>
+      <c r="KY1" s="592" t="s">
+        <v>8</v>
+      </c>
+      <c r="KZ1" s="594" t="s">
+        <v>8</v>
+      </c>
+      <c r="LA1" s="596" t="s">
+        <v>8</v>
+      </c>
+      <c r="LB1" s="598" t="s">
+        <v>8</v>
+      </c>
+      <c r="LC1" s="600" t="s">
+        <v>8</v>
+      </c>
+      <c r="LD1" s="602" t="s">
+        <v>8</v>
+      </c>
+      <c r="LE1" s="604" t="s">
+        <v>8</v>
+      </c>
+      <c r="LF1" s="606" t="s">
+        <v>8</v>
+      </c>
+      <c r="LG1" s="608" t="s">
+        <v>8</v>
+      </c>
+      <c r="LH1" s="610" t="s">
+        <v>8</v>
+      </c>
+      <c r="LI1" s="612" t="s">
+        <v>8</v>
+      </c>
+      <c r="LJ1" s="614" t="s">
+        <v>8</v>
+      </c>
+      <c r="LK1" s="616" t="s">
+        <v>8</v>
+      </c>
+      <c r="LL1" s="618" t="s">
+        <v>8</v>
+      </c>
+      <c r="LM1" s="620" t="s">
+        <v>8</v>
+      </c>
+      <c r="LN1" s="622" t="s">
+        <v>8</v>
+      </c>
+      <c r="LO1" s="624" t="s">
+        <v>8</v>
+      </c>
+      <c r="LP1" s="626" t="s">
+        <v>8</v>
+      </c>
+      <c r="LQ1" s="628" t="s">
+        <v>8</v>
+      </c>
+      <c r="LR1" s="630" t="s">
+        <v>8</v>
+      </c>
+      <c r="LS1" s="632" t="s">
+        <v>8</v>
+      </c>
+      <c r="LT1" s="634" t="s">
+        <v>8</v>
+      </c>
+      <c r="LU1" s="636" t="s">
+        <v>8</v>
+      </c>
+      <c r="LV1" s="638" t="s">
+        <v>8</v>
+      </c>
+      <c r="LW1" s="640" t="s">
+        <v>8</v>
+      </c>
+      <c r="LX1" s="642" t="s">
+        <v>8</v>
+      </c>
+      <c r="LY1" s="644" t="s">
+        <v>8</v>
+      </c>
+      <c r="LZ1" s="646" t="s">
+        <v>8</v>
+      </c>
+      <c r="MA1" s="648" t="s">
+        <v>8</v>
+      </c>
+      <c r="MB1" s="650" t="s">
+        <v>8</v>
+      </c>
+      <c r="MC1" s="652" t="s">
+        <v>8</v>
+      </c>
+      <c r="MD1" s="654" t="s">
+        <v>8</v>
+      </c>
+      <c r="ME1" s="656" t="s">
+        <v>8</v>
+      </c>
+      <c r="MF1" s="658" t="s">
+        <v>8</v>
+      </c>
+      <c r="MG1" s="660" t="s">
+        <v>8</v>
+      </c>
+      <c r="MH1" s="662" t="s">
+        <v>8</v>
+      </c>
+      <c r="MI1" s="664" t="s">
+        <v>8</v>
+      </c>
+      <c r="MJ1" s="666" t="s">
+        <v>8</v>
+      </c>
+      <c r="MK1" s="668" t="s">
+        <v>8</v>
+      </c>
+      <c r="ML1" s="670" t="s">
+        <v>8</v>
+      </c>
+      <c r="MM1" s="672" t="s">
+        <v>8</v>
+      </c>
+      <c r="MN1" s="674" t="s">
+        <v>8</v>
+      </c>
+      <c r="MO1" s="676" t="s">
+        <v>8</v>
+      </c>
+      <c r="MP1" s="678" t="s">
+        <v>8</v>
+      </c>
+      <c r="MQ1" s="680" t="s">
+        <v>8</v>
+      </c>
+      <c r="MR1" s="682" t="s">
+        <v>8</v>
+      </c>
+      <c r="MS1" s="684" t="s">
+        <v>8</v>
+      </c>
+      <c r="MT1" s="686" t="s">
+        <v>8</v>
+      </c>
+      <c r="MU1" s="687" t="s">
+        <v>8</v>
+      </c>
+      <c r="MV1" s="689" t="s">
+        <v>8</v>
+      </c>
+      <c r="MW1" s="691" t="s">
+        <v>8</v>
+      </c>
+      <c r="MX1" s="693" t="s">
+        <v>8</v>
+      </c>
+      <c r="MY1" s="695" t="s">
+        <v>8</v>
+      </c>
+      <c r="MZ1" s="697" t="s">
+        <v>8</v>
+      </c>
+      <c r="NA1" s="699" t="s">
+        <v>8</v>
+      </c>
+      <c r="NB1" s="701" t="s">
+        <v>8</v>
+      </c>
+      <c r="NC1" s="703" t="s">
+        <v>8</v>
+      </c>
+      <c r="ND1" s="705" t="s">
+        <v>8</v>
+      </c>
+      <c r="NE1" s="707" t="s">
+        <v>8</v>
+      </c>
+      <c r="NF1" s="709" t="s">
+        <v>8</v>
+      </c>
+      <c r="NG1" s="711" t="s">
+        <v>8</v>
+      </c>
+      <c r="NH1" s="713" t="s">
+        <v>8</v>
+      </c>
+      <c r="NI1" s="715" t="s">
+        <v>8</v>
+      </c>
+      <c r="NJ1" s="717" t="s">
+        <v>8</v>
+      </c>
+      <c r="NK1" s="719" t="s">
+        <v>8</v>
+      </c>
+      <c r="NL1" s="721" t="s">
+        <v>8</v>
+      </c>
+      <c r="NM1" s="723" t="s">
+        <v>8</v>
+      </c>
+      <c r="NN1" s="725" t="s">
+        <v>8</v>
+      </c>
+      <c r="NO1" s="727" t="s">
+        <v>8</v>
+      </c>
+      <c r="NP1" s="729" t="s">
+        <v>8</v>
+      </c>
+      <c r="NQ1" s="731" t="s">
+        <v>8</v>
+      </c>
+      <c r="NR1" s="733" t="s">
+        <v>8</v>
+      </c>
+      <c r="NS1" s="735" t="s">
+        <v>8</v>
+      </c>
+      <c r="NT1" s="737" t="s">
+        <v>8</v>
+      </c>
+      <c r="NU1" s="739" t="s">
+        <v>8</v>
+      </c>
+      <c r="NV1" s="741" t="s">
+        <v>8</v>
+      </c>
+      <c r="NW1" s="743" t="s">
+        <v>8</v>
+      </c>
+      <c r="NX1" s="745" t="s">
+        <v>8</v>
+      </c>
+      <c r="NY1" s="747" t="s">
+        <v>8</v>
+      </c>
+      <c r="NZ1" s="749" t="s">
+        <v>8</v>
+      </c>
+      <c r="OA1" s="751" t="s">
+        <v>8</v>
+      </c>
+      <c r="OB1" s="753" t="s">
+        <v>8</v>
+      </c>
+      <c r="OC1" s="755" t="s">
+        <v>8</v>
+      </c>
+      <c r="OD1" s="757" t="s">
+        <v>8</v>
+      </c>
+      <c r="OE1" s="759" t="s">
+        <v>8</v>
+      </c>
+      <c r="OF1" s="761" t="s">
+        <v>8</v>
+      </c>
+      <c r="OG1" s="763" t="s">
+        <v>8</v>
+      </c>
+      <c r="OH1" s="765" t="s">
+        <v>8</v>
+      </c>
+      <c r="OI1" s="767" t="s">
+        <v>8</v>
+      </c>
+      <c r="OJ1" s="769" t="s">
+        <v>8</v>
+      </c>
+      <c r="OK1" s="771" t="s">
+        <v>8</v>
+      </c>
+      <c r="OL1" s="773" t="s">
+        <v>8</v>
+      </c>
+      <c r="OM1" s="775" t="s">
+        <v>8</v>
+      </c>
+      <c r="ON1" s="777" t="s">
+        <v>8</v>
+      </c>
+      <c r="OO1" s="779" t="s">
+        <v>8</v>
+      </c>
+      <c r="OP1" s="781" t="s">
+        <v>8</v>
+      </c>
+      <c r="OQ1" s="783" t="s">
+        <v>8</v>
+      </c>
+      <c r="OR1" s="785" t="s">
+        <v>8</v>
+      </c>
+      <c r="OS1" s="787" t="s">
+        <v>8</v>
+      </c>
+      <c r="OT1" s="789" t="s">
+        <v>8</v>
+      </c>
+      <c r="OU1" s="791" t="s">
+        <v>8</v>
+      </c>
+      <c r="OV1" s="793" t="s">
+        <v>8</v>
+      </c>
+      <c r="OW1" s="795" t="s">
+        <v>8</v>
+      </c>
+      <c r="OX1" s="797" t="s">
+        <v>8</v>
+      </c>
+      <c r="OY1" s="799" t="s">
+        <v>8</v>
+      </c>
+      <c r="OZ1" s="801" t="s">
+        <v>8</v>
+      </c>
+      <c r="PA1" s="803" t="s">
+        <v>8</v>
+      </c>
+      <c r="PB1" s="805" t="s">
+        <v>8</v>
+      </c>
+      <c r="PC1" s="807" t="s">
+        <v>8</v>
+      </c>
+      <c r="PD1" s="809" t="s">
+        <v>8</v>
+      </c>
+      <c r="PE1" s="811" t="s">
+        <v>8</v>
+      </c>
+      <c r="PF1" s="813" t="s">
+        <v>8</v>
+      </c>
+      <c r="PG1" s="815" t="s">
+        <v>8</v>
+      </c>
+      <c r="PH1" s="817" t="s">
+        <v>8</v>
+      </c>
+      <c r="PI1" s="819" t="s">
+        <v>8</v>
+      </c>
+      <c r="PJ1" s="821" t="s">
+        <v>8</v>
+      </c>
+      <c r="PK1" s="823" t="s">
+        <v>8</v>
+      </c>
+      <c r="PL1" s="825" t="s">
+        <v>8</v>
+      </c>
+      <c r="PM1" s="827" t="s">
+        <v>8</v>
+      </c>
+      <c r="PN1" s="829" t="s">
+        <v>8</v>
+      </c>
+      <c r="PO1" s="831" t="s">
+        <v>8</v>
+      </c>
+      <c r="PP1" s="833" t="s">
+        <v>8</v>
+      </c>
+      <c r="PQ1" s="835" t="s">
+        <v>8</v>
+      </c>
+      <c r="PR1" s="837" t="s">
+        <v>8</v>
+      </c>
+      <c r="PS1" s="839" t="s">
+        <v>8</v>
+      </c>
+      <c r="PT1" s="841" t="s">
+        <v>8</v>
+      </c>
+      <c r="PU1" s="843" t="s">
+        <v>8</v>
+      </c>
+      <c r="PV1" s="845" t="s">
+        <v>8</v>
+      </c>
+      <c r="PW1" s="847" t="s">
+        <v>8</v>
+      </c>
+      <c r="PX1" s="849" t="s">
+        <v>8</v>
+      </c>
+      <c r="PY1" s="851" t="s">
+        <v>8</v>
+      </c>
+      <c r="PZ1" s="853" t="s">
+        <v>8</v>
+      </c>
+      <c r="QA1" s="855" t="s">
+        <v>8</v>
+      </c>
+      <c r="QB1" s="857" t="s">
+        <v>8</v>
+      </c>
+      <c r="QC1" s="859" t="s">
+        <v>8</v>
+      </c>
+      <c r="QD1" s="861" t="s">
+        <v>8</v>
+      </c>
+      <c r="QE1" s="863" t="s">
+        <v>8</v>
+      </c>
+      <c r="QF1" s="865" t="s">
+        <v>8</v>
+      </c>
+      <c r="QG1" s="867" t="s">
+        <v>8</v>
+      </c>
+      <c r="QH1" s="869" t="s">
+        <v>8</v>
+      </c>
+      <c r="QI1" s="871" t="s">
+        <v>8</v>
+      </c>
+      <c r="QJ1" s="873" t="s">
+        <v>8</v>
+      </c>
+      <c r="QK1" s="875" t="s">
+        <v>8</v>
+      </c>
+      <c r="QL1" s="877" t="s">
+        <v>8</v>
+      </c>
+      <c r="QM1" s="879" t="s">
+        <v>8</v>
+      </c>
+      <c r="QN1" s="881" t="s">
+        <v>8</v>
+      </c>
+      <c r="QO1" s="883" t="s">
+        <v>8</v>
+      </c>
+      <c r="QP1" s="885" t="s">
+        <v>8</v>
+      </c>
+      <c r="QQ1" s="887" t="s">
+        <v>8</v>
+      </c>
+      <c r="QR1" s="889" t="s">
+        <v>8</v>
+      </c>
+      <c r="QS1" s="891" t="s">
+        <v>8</v>
+      </c>
+      <c r="QT1" s="893" t="s">
+        <v>8</v>
+      </c>
+      <c r="QU1" s="895" t="s">
+        <v>8</v>
+      </c>
+      <c r="QV1" s="897" t="s">
+        <v>8</v>
+      </c>
+      <c r="QW1" s="899" t="s">
+        <v>8</v>
+      </c>
+      <c r="QX1" s="901" t="s">
+        <v>8</v>
+      </c>
+      <c r="QY1" s="903" t="s">
+        <v>8</v>
+      </c>
+      <c r="QZ1" s="905" t="s">
+        <v>8</v>
+      </c>
+      <c r="RA1" s="907" t="s">
+        <v>8</v>
+      </c>
+      <c r="RB1" s="909" t="s">
+        <v>8</v>
+      </c>
+      <c r="RC1" s="911" t="s">
+        <v>8</v>
+      </c>
+      <c r="RD1" s="913" t="s">
+        <v>8</v>
+      </c>
+      <c r="RE1" s="915" t="s">
+        <v>8</v>
+      </c>
+      <c r="RF1" s="917" t="s">
+        <v>8</v>
+      </c>
+      <c r="RG1" s="919" t="s">
+        <v>8</v>
+      </c>
+      <c r="RH1" s="921" t="s">
+        <v>8</v>
+      </c>
+      <c r="RI1" s="923" t="s">
+        <v>8</v>
+      </c>
+      <c r="RJ1" s="925" t="s">
+        <v>8</v>
+      </c>
+      <c r="RK1" s="927" t="s">
+        <v>8</v>
+      </c>
+      <c r="RL1" s="929" t="s">
+        <v>8</v>
+      </c>
+      <c r="RM1" s="931" t="s">
+        <v>8</v>
+      </c>
+      <c r="RN1" s="933" t="s">
+        <v>8</v>
+      </c>
+      <c r="RO1" s="935" t="s">
+        <v>8</v>
+      </c>
+      <c r="RP1" s="937" t="s">
+        <v>8</v>
+      </c>
+      <c r="RQ1" s="939" t="s">
+        <v>8</v>
+      </c>
+      <c r="RR1" s="941" t="s">
+        <v>8</v>
+      </c>
+      <c r="RS1" s="943" t="s">
+        <v>8</v>
+      </c>
+      <c r="RT1" s="945" t="s">
+        <v>8</v>
+      </c>
+      <c r="RU1" s="947" t="s">
+        <v>8</v>
+      </c>
+      <c r="RV1" s="949" t="s">
+        <v>8</v>
+      </c>
+      <c r="RW1" s="951" t="s">
+        <v>8</v>
+      </c>
+      <c r="RX1" s="953" t="s">
+        <v>8</v>
+      </c>
+      <c r="RY1" s="955" t="s">
+        <v>8</v>
+      </c>
+      <c r="RZ1" s="957" t="s">
+        <v>8</v>
+      </c>
+      <c r="SA1" s="959" t="s">
+        <v>8</v>
+      </c>
+      <c r="SB1" s="961" t="s">
+        <v>8</v>
+      </c>
+      <c r="SC1" s="963" t="s">
+        <v>8</v>
+      </c>
+      <c r="SD1" s="965" t="s">
+        <v>8</v>
+      </c>
+      <c r="SE1" s="967" t="s">
+        <v>8</v>
+      </c>
+      <c r="SF1" s="969" t="s">
+        <v>8</v>
+      </c>
+      <c r="SG1" s="971" t="s">
+        <v>8</v>
+      </c>
+      <c r="SH1" s="973" t="s">
+        <v>8</v>
+      </c>
+      <c r="SI1" s="975" t="s">
+        <v>8</v>
+      </c>
+      <c r="SJ1" s="977" t="s">
+        <v>8</v>
+      </c>
+      <c r="SK1" s="979" t="s">
+        <v>8</v>
+      </c>
+      <c r="SL1" s="981" t="s">
+        <v>8</v>
+      </c>
+      <c r="SM1" s="983" t="s">
+        <v>8</v>
+      </c>
+      <c r="SN1" s="985" t="s">
+        <v>8</v>
+      </c>
+      <c r="SO1" s="987" t="s">
+        <v>8</v>
+      </c>
+      <c r="SP1" s="989" t="s">
+        <v>8</v>
+      </c>
+      <c r="SQ1" s="991" t="s">
+        <v>8</v>
+      </c>
+      <c r="SR1" s="993" t="s">
+        <v>8</v>
+      </c>
+      <c r="SS1" s="995" t="s">
+        <v>8</v>
+      </c>
+      <c r="ST1" s="997" t="s">
+        <v>8</v>
+      </c>
+      <c r="SU1" s="999" t="s">
+        <v>8</v>
+      </c>
+      <c r="SV1" s="1001" t="s">
+        <v>8</v>
+      </c>
+      <c r="SW1" s="1003" t="s">
+        <v>8</v>
+      </c>
+      <c r="SX1" s="1005" t="s">
+        <v>8</v>
+      </c>
+      <c r="SY1" s="1007" t="s">
+        <v>8</v>
+      </c>
+      <c r="SZ1" s="1009" t="s">
+        <v>8</v>
+      </c>
+      <c r="TA1" s="1011" t="s">
+        <v>8</v>
+      </c>
+      <c r="TB1" s="1013" t="s">
+        <v>8</v>
+      </c>
+      <c r="TC1" s="1015" t="s">
+        <v>8</v>
+      </c>
+      <c r="TD1" s="1017" t="s">
+        <v>8</v>
+      </c>
+      <c r="TE1" s="1019" t="s">
+        <v>8</v>
+      </c>
+      <c r="TF1" s="1021" t="s">
+        <v>8</v>
+      </c>
+      <c r="TG1" s="1023" t="s">
+        <v>8</v>
+      </c>
+      <c r="TH1" s="1025" t="s">
+        <v>8</v>
+      </c>
+      <c r="TI1" s="1027" t="s">
+        <v>8</v>
+      </c>
+      <c r="TJ1" s="1029" t="s">
+        <v>8</v>
+      </c>
+      <c r="TK1" s="1031" t="s">
+        <v>8</v>
+      </c>
+      <c r="TL1" s="1033" t="s">
+        <v>8</v>
+      </c>
+      <c r="TM1" s="1035" t="s">
+        <v>8</v>
+      </c>
+      <c r="TN1" s="1037" t="s">
+        <v>8</v>
+      </c>
+      <c r="TO1" s="1039" t="s">
+        <v>8</v>
+      </c>
+      <c r="TP1" s="1041" t="s">
+        <v>8</v>
+      </c>
+      <c r="TQ1" s="1043" t="s">
+        <v>8</v>
+      </c>
+      <c r="TR1" s="1045" t="s">
+        <v>8</v>
+      </c>
+      <c r="TS1" s="1047" t="s">
+        <v>8</v>
+      </c>
+      <c r="TT1" s="1049" t="s">
+        <v>8</v>
+      </c>
+      <c r="TU1" s="1051" t="s">
+        <v>8</v>
+      </c>
+      <c r="TV1" s="1053" t="s">
+        <v>8</v>
+      </c>
+      <c r="TW1" s="1055" t="s">
+        <v>8</v>
+      </c>
+      <c r="TX1" s="1057" t="s">
+        <v>8</v>
+      </c>
+      <c r="TY1" t="s" s="1059">
+        <v>8</v>
+      </c>
+      <c r="TZ1" t="s" s="1061">
+        <v>8</v>
+      </c>
+      <c r="UA1" t="s" s="1063">
+        <v>8</v>
+      </c>
+      <c r="UB1" t="s" s="1065">
+        <v>8</v>
+      </c>
+      <c r="UC1" t="s" s="1067">
+        <v>8</v>
+      </c>
+      <c r="UD1" t="s" s="1069">
+        <v>8</v>
+      </c>
+      <c r="UE1" t="s" s="1071">
+        <v>8</v>
+      </c>
+      <c r="UF1" t="s" s="1073">
+        <v>8</v>
+      </c>
+      <c r="UG1" t="s" s="1075">
+        <v>8</v>
+      </c>
+      <c r="UH1" t="s" s="1077">
+        <v>8</v>
+      </c>
+      <c r="UI1" t="s" s="1079">
+        <v>8</v>
+      </c>
+      <c r="UJ1" t="s" s="1081">
+        <v>8</v>
+      </c>
+      <c r="UK1" t="s" s="1083">
+        <v>8</v>
+      </c>
+      <c r="UL1" t="s" s="1085">
+        <v>8</v>
+      </c>
+      <c r="UM1" t="s" s="1087">
+        <v>8</v>
+      </c>
+      <c r="UN1" t="s" s="1089">
+        <v>8</v>
+      </c>
+      <c r="UO1" t="s" s="1091">
+        <v>8</v>
+      </c>
+      <c r="UP1" t="s" s="1093">
+        <v>8</v>
+      </c>
+      <c r="UQ1" t="s" s="1095">
+        <v>8</v>
+      </c>
+      <c r="UR1" t="s" s="1097">
+        <v>8</v>
+      </c>
+      <c r="US1" t="s" s="1099">
+        <v>8</v>
+      </c>
+      <c r="UT1" t="s" s="1101">
+        <v>8</v>
+      </c>
+      <c r="UU1" t="s" s="1103">
+        <v>8</v>
+      </c>
+      <c r="UV1" t="s" s="1105">
+        <v>8</v>
+      </c>
+      <c r="UW1" t="s" s="1107">
+        <v>8</v>
+      </c>
+      <c r="UX1" t="s" s="1109">
+        <v>8</v>
+      </c>
+      <c r="UY1" t="s" s="1111">
+        <v>8</v>
+      </c>
+      <c r="UZ1" t="s" s="1113">
+        <v>8</v>
+      </c>
+      <c r="VA1" t="s" s="1115">
+        <v>8</v>
+      </c>
+      <c r="VB1" t="s" s="1117">
+        <v>8</v>
+      </c>
+      <c r="VC1" t="s" s="1119">
+        <v>8</v>
+      </c>
+      <c r="VD1" t="s" s="1121">
+        <v>8</v>
+      </c>
+      <c r="VE1" t="s" s="1123">
+        <v>8</v>
+      </c>
+      <c r="VF1" t="s" s="1125">
+        <v>8</v>
+      </c>
+      <c r="VG1" t="s" s="1127">
+        <v>8</v>
+      </c>
+      <c r="VH1" t="s" s="1129">
+        <v>8</v>
+      </c>
+      <c r="VI1" t="s" s="1131">
+        <v>8</v>
+      </c>
+      <c r="VJ1" t="s" s="1133">
+        <v>8</v>
+      </c>
+      <c r="VK1" t="s" s="1135">
+        <v>8</v>
+      </c>
+      <c r="VL1" t="s" s="1137">
+        <v>8</v>
+      </c>
+      <c r="VM1" t="s" s="1139">
+        <v>8</v>
+      </c>
+      <c r="VN1" t="s" s="1141">
+        <v>8</v>
+      </c>
+      <c r="VO1" t="s" s="1143">
+        <v>8</v>
+      </c>
+      <c r="VP1" t="s" s="1145">
+        <v>8</v>
+      </c>
+      <c r="VQ1" t="s" s="1147">
+        <v>8</v>
+      </c>
+      <c r="VR1" t="s" s="1149">
+        <v>8</v>
+      </c>
+      <c r="VS1" t="s" s="1151">
+        <v>8</v>
+      </c>
+      <c r="VT1" t="s" s="1153">
+        <v>8</v>
+      </c>
+      <c r="VU1" t="s" s="1155">
+        <v>8</v>
+      </c>
+      <c r="VV1" t="s" s="1157">
+        <v>8</v>
+      </c>
+      <c r="VW1" t="s" s="1159">
+        <v>8</v>
+      </c>
+      <c r="VX1" t="s" s="1161">
+        <v>8</v>
+      </c>
+      <c r="VY1" t="s" s="1163">
+        <v>8</v>
+      </c>
+      <c r="VZ1" t="s" s="1165">
+        <v>8</v>
+      </c>
+      <c r="WA1" t="s" s="1167">
+        <v>8</v>
+      </c>
+      <c r="WB1" t="s" s="1169">
+        <v>8</v>
+      </c>
+      <c r="WC1" t="s" s="1171">
+        <v>8</v>
+      </c>
+      <c r="WD1" t="s" s="1173">
+        <v>8</v>
+      </c>
+      <c r="WE1" t="s" s="1175">
+        <v>8</v>
+      </c>
+      <c r="WF1" t="s" s="1177">
+        <v>8</v>
+      </c>
+      <c r="WG1" t="s" s="1179">
+        <v>8</v>
+      </c>
+      <c r="WH1" t="s" s="1181">
+        <v>8</v>
+      </c>
+      <c r="WI1" t="s" s="1183">
+        <v>8</v>
+      </c>
+      <c r="WJ1" t="s" s="1185">
+        <v>8</v>
+      </c>
+      <c r="WK1" t="s" s="1187">
+        <v>8</v>
+      </c>
+      <c r="WL1" t="s" s="1189">
+        <v>8</v>
+      </c>
+      <c r="WM1" t="s" s="1191">
+        <v>8</v>
+      </c>
+      <c r="WN1" t="s" s="1193">
+        <v>8</v>
+      </c>
+      <c r="WO1" t="s" s="1195">
+        <v>8</v>
+      </c>
+      <c r="WP1" t="s" s="1197">
+        <v>8</v>
+      </c>
+      <c r="WQ1" t="s" s="1199">
+        <v>8</v>
+      </c>
+      <c r="WR1" t="s" s="1201">
+        <v>8</v>
+      </c>
+      <c r="WS1" t="s" s="1203">
+        <v>8</v>
+      </c>
+      <c r="WT1" t="s" s="1205">
+        <v>8</v>
+      </c>
+      <c r="WU1" t="s" s="1207">
+        <v>8</v>
+      </c>
+      <c r="WV1" t="s" s="1209">
+        <v>8</v>
+      </c>
+      <c r="WW1" t="s" s="1211">
+        <v>8</v>
+      </c>
+      <c r="WX1" t="s" s="1213">
+        <v>8</v>
+      </c>
+      <c r="WY1" t="s" s="1215">
+        <v>8</v>
+      </c>
+      <c r="WZ1" t="s" s="1217">
+        <v>8</v>
+      </c>
+      <c r="XA1" t="s" s="1219">
+        <v>8</v>
+      </c>
+      <c r="XB1" t="s" s="1221">
+        <v>8</v>
+      </c>
+      <c r="XC1" t="s" s="1223">
+        <v>8</v>
+      </c>
+      <c r="XD1" t="s" s="1225">
+        <v>8</v>
+      </c>
+      <c r="XE1" t="s" s="1227">
+        <v>8</v>
+      </c>
+      <c r="XF1" t="s" s="1229">
+        <v>8</v>
+      </c>
+      <c r="XG1" t="s" s="1231">
+        <v>8</v>
+      </c>
+      <c r="XH1" t="s" s="1233">
+        <v>8</v>
+      </c>
+      <c r="XI1" t="s" s="1235">
+        <v>8</v>
+      </c>
+      <c r="XJ1" t="s" s="1237">
+        <v>8</v>
+      </c>
+      <c r="XK1" t="s" s="1239">
+        <v>8</v>
+      </c>
+      <c r="XL1" t="s" s="1241">
+        <v>8</v>
+      </c>
+      <c r="XM1" t="s" s="1243">
+        <v>8</v>
+      </c>
+      <c r="XN1" t="s" s="1245">
+        <v>8</v>
+      </c>
+      <c r="XO1" t="s" s="1247">
+        <v>8</v>
+      </c>
+      <c r="XP1" t="s" s="1249">
+        <v>8</v>
+      </c>
+      <c r="XQ1" t="s" s="1251">
+        <v>8</v>
+      </c>
+      <c r="XR1" t="s" s="1253">
+        <v>8</v>
+      </c>
+      <c r="XS1" t="s" s="1255">
+        <v>8</v>
+      </c>
+      <c r="XT1" t="s" s="1257">
+        <v>8</v>
+      </c>
+      <c r="XU1" t="s" s="1259">
+        <v>8</v>
+      </c>
+      <c r="XV1" t="s" s="1261">
+        <v>8</v>
+      </c>
+      <c r="XW1" t="s" s="1263">
+        <v>8</v>
+      </c>
+      <c r="XX1" t="s" s="1265">
+        <v>8</v>
+      </c>
+      <c r="XY1" t="s" s="1267">
+        <v>8</v>
+      </c>
+      <c r="XZ1" t="s" s="1269">
+        <v>8</v>
+      </c>
+      <c r="YA1" t="s" s="1271">
+        <v>8</v>
+      </c>
+      <c r="YB1" t="s" s="1273">
+        <v>8</v>
+      </c>
+      <c r="YC1" t="s" s="1275">
+        <v>8</v>
+      </c>
+      <c r="YD1" t="s" s="1277">
+        <v>8</v>
+      </c>
+      <c r="YE1" t="s" s="1279">
+        <v>8</v>
+      </c>
+      <c r="YF1" t="s" s="1281">
+        <v>8</v>
+      </c>
+      <c r="YG1" t="s" s="1283">
+        <v>8</v>
+      </c>
+      <c r="YH1" t="s" s="1285">
+        <v>8</v>
+      </c>
+      <c r="YI1" t="s" s="1287">
+        <v>8</v>
+      </c>
+      <c r="YJ1" t="s" s="1289">
+        <v>8</v>
+      </c>
+      <c r="YK1" t="s" s="1291">
+        <v>8</v>
+      </c>
+      <c r="YL1" t="s" s="1293">
+        <v>8</v>
+      </c>
+      <c r="YM1" t="s" s="1295">
+        <v>8</v>
+      </c>
+      <c r="YN1" t="s" s="1297">
+        <v>8</v>
+      </c>
+      <c r="YO1" t="s" s="1299">
+        <v>8</v>
+      </c>
+      <c r="YP1" t="s" s="1301">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:328" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:544" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3313,7 +5999,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="580" t="s">
+        <v>11</v>
       </c>
       <c r="P2" t="s">
         <v>7</v>
@@ -4189,6 +6878,972 @@
         <v>7</v>
       </c>
       <c r="MD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="ML2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="SZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="TZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="US2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="UZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="VZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WU2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="WZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XP2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XQ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XR2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XT2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XX2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XY2" t="s">
+        <v>7</v>
+      </c>
+      <c r="XZ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YI2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YJ2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YN2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YO2" t="s">
+        <v>7</v>
+      </c>
+      <c r="YP2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4196,124 +7851,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875"/>
-    <col min="2" max="2" customWidth="true" width="25.140625"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="564" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="564" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="564" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625"/>
-    <col min="2" max="2" customWidth="true" width="25.7109375"/>
-    <col min="3" max="3" customWidth="true" width="36.85546875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="581" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="18.85546875"/>
-    <col min="2" max="2" customWidth="true" width="25.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="562" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="562" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="562" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="562" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>